--- a/4 sem/lab5/Книга1.xlsx
+++ b/4 sem/lab5/Книга1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\4sem\lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\arondy\asm\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E11B5D-A4EF-415C-BC30-F66DB2771808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58E656-CBC5-4568-80A3-CB3146CF7199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3000" windowWidth="19875" windowHeight="15435" xr2:uid="{6004C85B-7667-4625-B730-61849A1B6B6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6004C85B-7667-4625-B730-61849A1B6B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>1 (22 МБ)</t>
   </si>
@@ -73,6 +73,99 @@
   </si>
   <si>
     <t>NASM</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.070</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>0.170</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.052</t>
   </si>
 </sst>
 </file>
@@ -594,7 +687,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,100 +730,100 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>8.11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3.37</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.92</v>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.43</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.37</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.67</v>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.36</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.48</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.65</v>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.41</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.64</v>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
-        <v>3.02</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.63</v>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,100 +860,100 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.54</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.22</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.83</v>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.58</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.39</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.69</v>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6">
-        <v>3.29</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.49</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.66</v>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.46</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1.27</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.66</v>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
-        <v>3.04</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.27</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.65</v>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
